--- a/Taiwan Steel/1 MONTH/20227/comparison.xlsx
+++ b/Taiwan Steel/1 MONTH/20227/comparison.xlsx
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>10.33</v>
+        <v>31.27</v>
       </c>
       <c r="D6">
         <v>0</v>
